--- a/ExcelFile/7e7fba70-afe8-4e49-9b46-ff928ee8312a-Excel.xlsx
+++ b/ExcelFile/7e7fba70-afe8-4e49-9b46-ff928ee8312a-Excel.xlsx
@@ -25,34 +25,43 @@
     <x:t>Text</x:t>
   </x:si>
   <x:si>
-    <x:t>CategoryName</x:t>
-  </x:si>
-  <x:si>
     <x:t>FileName</x:t>
   </x:si>
   <x:si>
+    <x:t>View</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Like</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dislike</x:t>
+  </x:si>
+  <x:si>
     <x:t>33d29999-4d4d-4fd2-88cb-ff816e3fdcb4</x:t>
   </x:si>
   <x:si>
     <x:t>Idea 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Category2</x:t>
-  </x:si>
-  <x:si>
     <x:t>FilePath3</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
     <x:t>7c8605e8-fbd6-4e75-b31e-132f7927c35a</x:t>
   </x:si>
   <x:si>
     <x:t>Idea 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Category1</x:t>
-  </x:si>
-  <x:si>
     <x:t>FilePath1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -116,14 +125,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Idea" displayName="Idea" ref="A1:E3" totalsRowShown="0">
-  <x:autoFilter ref="A1:E3"/>
-  <x:tableColumns count="5">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Idea" displayName="Idea" ref="A1:G3" totalsRowShown="0">
+  <x:autoFilter ref="A1:G3"/>
+  <x:tableColumns count="7">
     <x:tableColumn id="1" name="Id"/>
     <x:tableColumn id="2" name="Name"/>
     <x:tableColumn id="3" name="Text"/>
-    <x:tableColumn id="4" name="CategoryName"/>
-    <x:tableColumn id="5" name="FileName"/>
+    <x:tableColumn id="4" name="FileName"/>
+    <x:tableColumn id="5" name="View"/>
+    <x:tableColumn id="6" name="Like"/>
+    <x:tableColumn id="7" name="Dislike"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -417,13 +428,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E3"/>
+  <x:dimension ref="A1:G3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -439,39 +450,57 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
